--- a/REGIONE_LAZIO/integrity:S1#VILAZIO.xlsx
+++ b/REGIONE_LAZIO/integrity:S1#VILAZIO.xlsx
@@ -41,13 +41,13 @@
     <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e7e6b389db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.be7ba7c0c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721645763907</t>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721646186259</t>
   </si>
   <si>
-    <t>22-07-2024:12:56:06</t>
+    <t>22-07-2024:13:03:07</t>
   </si>
   <si>
     <t>Creazione_0</t>
@@ -56,13 +56,13 @@
     <t>MRCLSN97C14H501J^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.dc1d06ac10^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.1a94c8365b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721645752195</t>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721646174009</t>
   </si>
   <si>
-    <t>22-07-2024:12:55:54</t>
+    <t>22-07-2024:13:02:56</t>
   </si>
 </sst>
 </file>

--- a/REGIONE_LAZIO/integrity:S1#VILAZIO.xlsx
+++ b/REGIONE_LAZIO/integrity:S1#VILAZIO.xlsx
@@ -41,13 +41,13 @@
     <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.be7ba7c0c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.b6dc1bd5c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721646186259</t>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721652251026</t>
   </si>
   <si>
-    <t>22-07-2024:13:03:07</t>
+    <t>22-07-2024:14:44:12</t>
   </si>
   <si>
     <t>Creazione_0</t>
@@ -56,13 +56,13 @@
     <t>MRCLSN97C14H501J^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.1a94c8365b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e402b1f1de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721646174009</t>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721652240625</t>
   </si>
   <si>
-    <t>22-07-2024:13:02:56</t>
+    <t>22-07-2024:14:44:02</t>
   </si>
 </sst>
 </file>

--- a/REGIONE_LAZIO/integrity:S1#VILAZIO.xlsx
+++ b/REGIONE_LAZIO/integrity:S1#VILAZIO.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -41,28 +41,31 @@
     <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.b6dc1bd5c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.5fc7bb1bb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721652251026</t>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721654277749</t>
   </si>
   <si>
-    <t>22-07-2024:14:44:12</t>
+    <t>22-07-2024:15:17:59</t>
   </si>
   <si>
     <t>Creazione_0</t>
   </si>
   <si>
+    <t>REGIONE_LAZIO</t>
+  </si>
+  <si>
     <t>MRCLSN97C14H501J^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e402b1f1de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.308a4c1cc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721652240625</t>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721654269139</t>
   </si>
   <si>
-    <t>22-07-2024:14:44:02</t>
+    <t>22-07-2024:15:17:51</t>
   </si>
 </sst>
 </file>
@@ -157,18 +160,20 @@
       <c r="A3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="E3" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/REGIONE_LAZIO/integrity:S1#VILAZIO.xlsx
+++ b/REGIONE_LAZIO/integrity:S1#VILAZIO.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -32,22 +32,37 @@
     <t>DATAEVENTO</t>
   </si>
   <si>
+    <t>Creazione_2</t>
+  </si>
+  <si>
+    <t>REGIONE_CAMPANIA</t>
+  </si>
+  <si>
+    <t>PRZMGV95D49F839P^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.52d02c742a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721656896931</t>
+  </si>
+  <si>
+    <t>22-07-2024:16:01:38</t>
+  </si>
+  <si>
     <t>Creazione_1</t>
   </si>
   <si>
-    <t>REGIONE_CAMPANIA</t>
-  </si>
-  <si>
     <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.5fc7bb1bb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721654277749</t>
-  </si>
-  <si>
-    <t>22-07-2024:15:17:59</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.4faa8a94e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721656887136</t>
+  </si>
+  <si>
+    <t>22-07-2024:16:01:28</t>
   </si>
   <si>
     <t>Creazione_0</t>
@@ -59,13 +74,13 @@
     <t>MRCLSN97C14H501J^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.308a4c1cc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721654269139</t>
-  </si>
-  <si>
-    <t>22-07-2024:15:17:51</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.592d0019d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721656876332</t>
+  </si>
+  <si>
+    <t>22-07-2024:16:01:17</t>
   </si>
 </sst>
 </file>
@@ -110,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -161,19 +176,39 @@
         <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
